--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Serping1-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Serping1-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.502027</v>
+        <v>12.164654</v>
       </c>
       <c r="H2">
-        <v>46.506081</v>
+        <v>36.493962</v>
       </c>
       <c r="I2">
-        <v>0.01694194650975459</v>
+        <v>0.01645466237598477</v>
       </c>
       <c r="J2">
-        <v>0.01834969517818498</v>
+        <v>0.01673867469867156</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,33 +558,33 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.112632333333334</v>
+        <v>11.028698</v>
       </c>
       <c r="N2">
-        <v>27.337897</v>
+        <v>33.086094</v>
       </c>
       <c r="O2">
-        <v>0.9981738658344552</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.9981738658344552</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>141.2642724724063</v>
+        <v>134.160295240492</v>
       </c>
       <c r="R2">
-        <v>1271.378452251657</v>
+        <v>1207.442657164428</v>
       </c>
       <c r="S2">
-        <v>0.01691100824240229</v>
+        <v>0.01645466237598477</v>
       </c>
       <c r="T2">
-        <v>0.01831618617289277</v>
+        <v>0.01673867469867156</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.502027</v>
+        <v>687.9602253333333</v>
       </c>
       <c r="H3">
-        <v>46.506081</v>
+        <v>2063.880676</v>
       </c>
       <c r="I3">
-        <v>0.01694194650975459</v>
+        <v>0.9305774941043453</v>
       </c>
       <c r="J3">
-        <v>0.01834969517818498</v>
+        <v>0.9466395359440105</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.01667133333333333</v>
+        <v>11.028698</v>
       </c>
       <c r="N3">
-        <v>0.050014</v>
+        <v>33.086094</v>
       </c>
       <c r="O3">
-        <v>0.001826134165544791</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.001826134165544791</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.2584394594593333</v>
+        <v>7587.305561213282</v>
       </c>
       <c r="R3">
-        <v>2.325955135134</v>
+        <v>68285.75005091954</v>
       </c>
       <c r="S3">
-        <v>3.093826735229518E-05</v>
+        <v>0.9305774941043453</v>
       </c>
       <c r="T3">
-        <v>3.35090052922161E-05</v>
+        <v>0.9466395359440105</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>687.9602253333334</v>
+        <v>0.9006163333333334</v>
       </c>
       <c r="H4">
-        <v>2063.880676</v>
+        <v>2.701849</v>
       </c>
       <c r="I4">
-        <v>0.751862020265869</v>
+        <v>0.001218229280939463</v>
       </c>
       <c r="J4">
-        <v>0.8143361142115235</v>
+        <v>0.001239256277406412</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,33 +682,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.112632333333334</v>
+        <v>11.028698</v>
       </c>
       <c r="N4">
-        <v>27.337897</v>
+        <v>33.086094</v>
       </c>
       <c r="O4">
-        <v>0.9981738658344552</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.9981738658344552</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>6269.128593419819</v>
+        <v>9.932625554200667</v>
       </c>
       <c r="R4">
-        <v>56422.15734077838</v>
+        <v>89.39362998780601</v>
       </c>
       <c r="S4">
-        <v>0.750489019342886</v>
+        <v>0.001218229280939463</v>
       </c>
       <c r="T4">
-        <v>0.8128490272111248</v>
+        <v>0.001239256277406412</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>687.9602253333334</v>
+        <v>37.6312075</v>
       </c>
       <c r="H5">
-        <v>2063.880676</v>
+        <v>75.262415</v>
       </c>
       <c r="I5">
-        <v>0.751862020265869</v>
+        <v>0.05090229563562809</v>
       </c>
       <c r="J5">
-        <v>0.8143361142115235</v>
+        <v>0.03452058950796899</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.01667133333333333</v>
+        <v>11.028698</v>
       </c>
       <c r="N5">
-        <v>0.050014</v>
+        <v>33.086094</v>
       </c>
       <c r="O5">
-        <v>0.001826134165544791</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.001826134165544791</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>11.46921423660711</v>
+        <v>415.023222892835</v>
       </c>
       <c r="R5">
-        <v>103.222928129464</v>
+        <v>2490.13933735701</v>
       </c>
       <c r="S5">
-        <v>0.001373000922983033</v>
+        <v>0.05090229563562809</v>
       </c>
       <c r="T5">
-        <v>0.001487087000398648</v>
+        <v>0.03452058950796899</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.698403</v>
+        <v>0.6264083333333333</v>
       </c>
       <c r="H6">
-        <v>2.095209</v>
+        <v>1.879225</v>
       </c>
       <c r="I6">
-        <v>0.0007632747813077693</v>
+        <v>0.0008473186031023426</v>
       </c>
       <c r="J6">
-        <v>0.0008266971900855241</v>
+        <v>0.0008619435719424233</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,338 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.112632333333334</v>
+        <v>11.028698</v>
       </c>
       <c r="N6">
-        <v>27.337897</v>
+        <v>33.086094</v>
       </c>
       <c r="O6">
-        <v>0.9981738658344552</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.9981738658344552</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>6.364289759497001</v>
+        <v>6.908468333016667</v>
       </c>
       <c r="R6">
-        <v>57.278607835473</v>
+        <v>62.17621499715001</v>
       </c>
       <c r="S6">
-        <v>0.0007618809391519245</v>
+        <v>0.0008473186031023426</v>
       </c>
       <c r="T6">
-        <v>0.000825187530102149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.698403</v>
-      </c>
-      <c r="H7">
-        <v>2.095209</v>
-      </c>
-      <c r="I7">
-        <v>0.0007632747813077693</v>
-      </c>
-      <c r="J7">
-        <v>0.0008266971900855241</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.01667133333333333</v>
-      </c>
-      <c r="N7">
-        <v>0.050014</v>
-      </c>
-      <c r="O7">
-        <v>0.001826134165544791</v>
-      </c>
-      <c r="P7">
-        <v>0.001826134165544791</v>
-      </c>
-      <c r="Q7">
-        <v>0.011643309214</v>
-      </c>
-      <c r="R7">
-        <v>0.104789782926</v>
-      </c>
-      <c r="S7">
-        <v>1.393842155844846E-06</v>
-      </c>
-      <c r="T7">
-        <v>1.509659983375052E-06</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>210.592407</v>
-      </c>
-      <c r="H8">
-        <v>421.184814</v>
-      </c>
-      <c r="I8">
-        <v>0.230153469269178</v>
-      </c>
-      <c r="J8">
-        <v>0.1661849974109953</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>9.112632333333334</v>
-      </c>
-      <c r="N8">
-        <v>27.337897</v>
-      </c>
-      <c r="O8">
-        <v>0.9981738658344552</v>
-      </c>
-      <c r="P8">
-        <v>0.9981738658344552</v>
-      </c>
-      <c r="Q8">
-        <v>1919.051177182693</v>
-      </c>
-      <c r="R8">
-        <v>11514.30706309616</v>
-      </c>
-      <c r="S8">
-        <v>0.2297331781556269</v>
-      </c>
-      <c r="T8">
-        <v>0.1658815213094221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>210.592407</v>
-      </c>
-      <c r="H9">
-        <v>421.184814</v>
-      </c>
-      <c r="I9">
-        <v>0.230153469269178</v>
-      </c>
-      <c r="J9">
-        <v>0.1661849974109953</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.01667133333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.050014</v>
-      </c>
-      <c r="O9">
-        <v>0.001826134165544791</v>
-      </c>
-      <c r="P9">
-        <v>0.001826134165544791</v>
-      </c>
-      <c r="Q9">
-        <v>3.510856214566</v>
-      </c>
-      <c r="R9">
-        <v>21.065137287396</v>
-      </c>
-      <c r="S9">
-        <v>0.000420291113551109</v>
-      </c>
-      <c r="T9">
-        <v>0.0003034761015731911</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.255552</v>
-      </c>
-      <c r="H10">
-        <v>0.766656</v>
-      </c>
-      <c r="I10">
-        <v>0.0002792891738906664</v>
-      </c>
-      <c r="J10">
-        <v>0.000302496009210636</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>9.112632333333334</v>
-      </c>
-      <c r="N10">
-        <v>27.337897</v>
-      </c>
-      <c r="O10">
-        <v>0.9981738658344552</v>
-      </c>
-      <c r="P10">
-        <v>0.9981738658344552</v>
-      </c>
-      <c r="Q10">
-        <v>2.328751418048</v>
-      </c>
-      <c r="R10">
-        <v>20.958762762432</v>
-      </c>
-      <c r="S10">
-        <v>0.0002787791543881579</v>
-      </c>
-      <c r="T10">
-        <v>0.0003019436109132755</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.255552</v>
-      </c>
-      <c r="H11">
-        <v>0.766656</v>
-      </c>
-      <c r="I11">
-        <v>0.0002792891738906664</v>
-      </c>
-      <c r="J11">
-        <v>0.000302496009210636</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.01667133333333333</v>
-      </c>
-      <c r="N11">
-        <v>0.050014</v>
-      </c>
-      <c r="O11">
-        <v>0.001826134165544791</v>
-      </c>
-      <c r="P11">
-        <v>0.001826134165544791</v>
-      </c>
-      <c r="Q11">
-        <v>0.004260392576</v>
-      </c>
-      <c r="R11">
-        <v>0.03834353318399999</v>
-      </c>
-      <c r="S11">
-        <v>5.10019502508526E-07</v>
-      </c>
-      <c r="T11">
-        <v>5.523982973604941E-07</v>
+        <v>0.0008619435719424233</v>
       </c>
     </row>
   </sheetData>
